--- a/Processed Queues/NYISO_Queue.xlsx
+++ b/Processed Queues/NYISO_Queue.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New York State Electric &amp; Gas</t>
+          <t>NY State Electric &amp; Gas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New York Power Authority</t>
+          <t>NY Power Authority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Quebec - New York</t>
+          <t>Quebec - NY</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="N40" s="3" t="n">
-        <v>44834</v>
+        <v>45657</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>12-2024</t>
+          <t>04-2026</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>12-2024</t>
+          <t>09-2026</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>02-2025</t>
+          <t>11-2026</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>05/2026</t>
+          <t>05-2026</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>05/2026</t>
+          <t>05-2026</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Granada Solar, LLC</t>
+          <t>Hawthorn Solar, LLC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="N60" s="3" t="n">
-        <v>45443</v>
+        <v>45657</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -9292,27 +9292,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ACE DEVCO NC, LLC</t>
+          <t>Somerset Solar, LLC</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Teele</t>
+          <t>Somerset Solar</t>
         </is>
       </c>
       <c r="E103" s="3" t="n">
-        <v>44043</v>
+        <v>44061</v>
       </c>
       <c r="F103" t="n">
-        <v>19.8</v>
+        <v>125</v>
       </c>
       <c r="G103" t="n">
-        <v>19.8</v>
+        <v>125</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>St. Lawrence</t>
+          <t>Niagara</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9331,40 +9331,40 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Alcoa - N. Ogdensburg 115 kV</t>
+          <t>Kintigh 345 kV</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>NYSEG</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N103" s="3" t="n">
-        <v>45322</v>
+        <v>45596</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>SIS</t>
+          <t>SRIS</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>03-2026</t>
+          <t>01-2027</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>05-2026</t>
+          <t>01-2027</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>06-2026</t>
+          <t>03-2027</t>
         </is>
       </c>
     </row>
@@ -9376,27 +9376,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Somerset Solar, LLC</t>
+          <t>Mineral Basin Solar Power, LLC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Somerset Solar</t>
+          <t>Mineral Basin Solar Power</t>
         </is>
       </c>
       <c r="E104" s="3" t="n">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="F104" t="n">
-        <v>125</v>
+        <v>401.6</v>
       </c>
       <c r="G104" t="n">
-        <v>125</v>
+        <v>401.6</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -9405,17 +9405,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Niagara</t>
+          <t>Clearfield</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Kintigh 345 kV</t>
+          <t>Homer City - Mainesburg 345KV</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -9423,13 +9423,11 @@
           <t>NYSEG</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
-        </is>
+      <c r="M104" t="n">
+        <v>10</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>45596</v>
+        <v>45688</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9438,17 +9436,17 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>01-2027</t>
+          <t>10-2027</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>01-2027</t>
+          <t>10-2027</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>03-2027</t>
+          <t>05-2028</t>
         </is>
       </c>
     </row>
@@ -9460,27 +9458,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Mineral Basin Solar Power, LLC</t>
+          <t>SED NY Holding LLC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mineral Basin Solar Power</t>
+          <t>Flat Creek Solar</t>
         </is>
       </c>
       <c r="E105" s="3" t="n">
-        <v>44064</v>
+        <v>44078</v>
       </c>
       <c r="F105" t="n">
-        <v>401.6</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>401.6</v>
+        <v>200</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -9489,27 +9487,27 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Clearfield</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Homer City - Mainesburg 345KV</t>
+          <t>Edic to Princetown 345kV Line 352</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>NYSEG</t>
+          <t>NYPA</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N105" s="3" t="n">
@@ -9522,17 +9520,17 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>10-2027</t>
+          <t>10-2028</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>10-2027</t>
+          <t>10-2028</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>05-2028</t>
+          <t>11-2028</t>
         </is>
       </c>
     </row>
@@ -9544,36 +9542,36 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SED NY Holding LLC</t>
+          <t>Northland Power U.S. Projects</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Flat Creek Solar</t>
+          <t>Alfred Oaks Solar</t>
         </is>
       </c>
       <c r="E106" s="3" t="n">
-        <v>44078</v>
+        <v>44088</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Energy Storage + Solar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Allegany</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9583,12 +9581,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Edic to Princetown 345kV Line 352</t>
+          <t>Andover - Palmeter 115 kV, Line 932</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>NYPA</t>
+          <t>NYSEG</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -9606,17 +9604,17 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>10-2028</t>
+          <t>09-2027</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>10-2028</t>
+          <t>09-2027</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>11-2028</t>
+          <t>11-2027</t>
         </is>
       </c>
     </row>
@@ -9628,36 +9626,36 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Northland Power U.S. Projects</t>
+          <t>Caithness LI Energy Storage, LLC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Alfred Oaks Solar</t>
+          <t>CLIES 20 MW</t>
         </is>
       </c>
       <c r="E107" s="3" t="n">
-        <v>44088</v>
+        <v>44153</v>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Energy Storage + Solar</t>
+          <t>Energy Storage</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Allegany</t>
+          <t>Suffolk</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9667,12 +9665,12 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Andover - Palmeter 115 kV, Line 932</t>
+          <t>Sills Road 138 kV</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>NYSEG</t>
+          <t>LIPA</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -9681,26 +9679,29 @@
         </is>
       </c>
       <c r="N107" s="3" t="n">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>SRIS</t>
-        </is>
+          <t>SIS, FS</t>
+        </is>
+      </c>
+      <c r="Q107" s="3" t="n">
+        <v>45456</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>09-2027</t>
+          <t>12-2025</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>09-2027</t>
+          <t>10-2025</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>11-2027</t>
+          <t>12-2025</t>
         </is>
       </c>
     </row>
@@ -9712,36 +9713,36 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Caithness LI Energy Storage, LLC</t>
+          <t>SED NY Holdings LLC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CLIES 20 MW</t>
+          <t>Flat Creek Solar 2</t>
         </is>
       </c>
       <c r="E108" s="3" t="n">
-        <v>44153</v>
+        <v>44158</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Suffolk</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -9751,12 +9752,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Sills Road 138 kV</t>
+          <t>Edic - Princetown 345 kV Line# 352</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>LIPA</t>
+          <t>NYPA</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -9765,29 +9766,26 @@
         </is>
       </c>
       <c r="N108" s="3" t="n">
-        <v>45504</v>
+        <v>45596</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>SIS, FS</t>
-        </is>
-      </c>
-      <c r="Q108" s="3" t="n">
-        <v>45456</v>
+          <t>SRIS</t>
+        </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>10-2028</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>10-2025</t>
+          <t>10-2028</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>11-2028</t>
         </is>
       </c>
     </row>
@@ -9799,36 +9797,36 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SED NY Holdings LLC</t>
+          <t>Caithness LI Energy Storage, LLC</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Flat Creek Solar 2</t>
+          <t>CLIES 70MW</t>
         </is>
       </c>
       <c r="E109" s="3" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G109" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Energy Storage</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Suffolk</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -9838,21 +9836,21 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Edic - Princetown 345 kV Line# 352</t>
+          <t>Sills Road 138kV</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>NYPA</t>
+          <t>LIPA</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N109" s="3" t="n">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -9861,17 +9859,17 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>10-2028</t>
+          <t>12-2026</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>10-2028</t>
+          <t>12-2026</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>11-2028</t>
+          <t>12-2026</t>
         </is>
       </c>
     </row>
@@ -9883,27 +9881,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Caithness LI Energy Storage, LLC</t>
+          <t>Microgrid Networks, LLC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CLIES 70MW</t>
+          <t>East Fishkill</t>
         </is>
       </c>
       <c r="E110" s="3" t="n">
-        <v>44160</v>
+        <v>44176</v>
       </c>
       <c r="F110" t="n">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -9912,7 +9910,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Suffolk</t>
+          <t>Dutchess</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9922,21 +9920,21 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Sills Road 138kV</t>
+          <t>Shenandoah 115kV</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>LIPA</t>
+          <t>CHG&amp;E</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N110" s="3" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -9945,17 +9943,17 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>12-2026</t>
+          <t>05-2028</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>12-2026</t>
+          <t>05-2028</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>12-2026</t>
+          <t>11-2028</t>
         </is>
       </c>
     </row>
@@ -9967,27 +9965,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Microgrid Networks, LLC</t>
+          <t>KCE NY 29, LLC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>East Fishkill</t>
+          <t>KCE NY 29</t>
         </is>
       </c>
       <c r="E111" s="3" t="n">
-        <v>44176</v>
+        <v>44179</v>
       </c>
       <c r="F111" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -9996,7 +9994,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Dutchess</t>
+          <t>Suffolk</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -10006,12 +10004,12 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Shenandoah 115kV</t>
+          <t>Kings 138 kV</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>CHG&amp;E</t>
+          <t>LIPA</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -10022,24 +10020,19 @@
       <c r="N111" s="3" t="n">
         <v>45596</v>
       </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>SRIS</t>
-        </is>
-      </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>05-2028</t>
+          <t>09-2027</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>05-2028</t>
+          <t>09-2027</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>11-2028</t>
+          <t>10-2027</t>
         </is>
       </c>
     </row>
@@ -10051,36 +10044,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>KCE NY 29, LLC</t>
+          <t>NY Power Authority and National Grid</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>KCE NY 29</t>
+          <t>Northern NY Priority Transmission Project (NNYPTP)</t>
         </is>
       </c>
       <c r="E112" s="3" t="n">
-        <v>44179</v>
-      </c>
-      <c r="F112" t="n">
-        <v>150</v>
-      </c>
-      <c r="G112" t="n">
-        <v>150</v>
+        <v>44187</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Suffolk</t>
+          <t>St. Lawrence-Lewis</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -10090,12 +10077,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Kings 138 kV</t>
+          <t>1. Moses 230 kV substation 2. Haverstock 345 kV sub (new) 3. Massena 230 kV substation 4. Adirondack 345 kV sub (new) 5. Willis 230 kV substation 6. Ryan &amp; Patnode 230 kV substations 7. Chases Lake 345 kV sub (new) 8. Marcy 345 kV sub 9. Edic 345 kV sub</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>LIPA</t>
+          <t>NYPA, NM-NG</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -10104,21 +10091,19 @@
         </is>
       </c>
       <c r="N112" s="3" t="n">
-        <v>45596</v>
+        <v>45077</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="Q112" s="3" t="n">
+        <v>44971</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>09-2027</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>09-2027</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>10-2027</t>
+          <t>12-2025</t>
         </is>
       </c>
     </row>
@@ -10130,30 +10115,36 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>New York Power Authority and National Grid</t>
+          <t>Liberty Renewables Inc.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Northern New York Priority Transmission Project (NNYPTP)</t>
+          <t>Hoffman Falls Wind</t>
         </is>
       </c>
       <c r="E113" s="3" t="n">
-        <v>44187</v>
+        <v>44223</v>
+      </c>
+      <c r="F113" t="n">
+        <v>72</v>
+      </c>
+      <c r="G113" t="n">
+        <v>72</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>St. Lawrence-Lewis</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10163,12 +10154,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>1. Moses 230 kV substation 2. Haverstock 345 kV sub (new) 3. Massena 230 kV substation 4. Adirondack 345 kV sub (new) 5. Willis 230 kV substation 6. Ryan &amp; Patnode 230 kV substations 7. Chases Lake 345 kV sub (new) 8. Marcy 345 kV sub 9. Edic 345 kV sub</t>
+          <t>Cortland - Fenner 115kV Line #3</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>NYPA, NM-NG</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -10177,19 +10168,21 @@
         </is>
       </c>
       <c r="N113" s="3" t="n">
-        <v>45077</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="Q113" s="3" t="n">
-        <v>44971</v>
+        <v>45596</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>10-2027</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>10-2027</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>12-2027</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10194,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -10211,17 +10204,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hoffman Falls Wind</t>
+          <t>Agricola Wind</t>
         </is>
       </c>
       <c r="E114" s="3" t="n">
-        <v>44223</v>
+        <v>44265</v>
       </c>
       <c r="F114" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G114" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -10230,7 +10223,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Cayuga</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -10240,12 +10233,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Cortland - Fenner 115kV Line #3</t>
+          <t>Milliken to Wright Ave 115 kV line #973</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>NYSEG</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -10256,6 +10249,11 @@
       <c r="N114" s="3" t="n">
         <v>45596</v>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>SRIS</t>
+        </is>
+      </c>
       <c r="R114" t="inlineStr">
         <is>
           <t>10-2027</t>
@@ -10280,36 +10278,36 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Liberty Renewables Inc.</t>
+          <t>Moss Ridge Solar 1, LLC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Agricola Wind</t>
+          <t>Moss Ridge Solar</t>
         </is>
       </c>
       <c r="E115" s="3" t="n">
-        <v>44265</v>
+        <v>44271</v>
       </c>
       <c r="F115" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="G115" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Cayuga</t>
+          <t>St. Lawrence</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10319,12 +10317,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Milliken to Wright Ave 115 kV line #973</t>
+          <t>Corning - Battle Hill 115 kV line #4</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>NYSEG</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10342,17 +10340,17 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>10-2027</t>
+          <t>09-2028</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>10-2027</t>
+          <t>10-2028</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>12-2027</t>
+          <t>11-2028</t>
         </is>
       </c>
     </row>
@@ -10364,27 +10362,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Moss Ridge Solar 1, LLC</t>
+          <t>York Run Solar, LLC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Moss Ridge Solar</t>
+          <t>York Run Solar</t>
         </is>
       </c>
       <c r="E116" s="3" t="n">
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="F116" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G116" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -10393,7 +10391,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>St. Lawrence</t>
+          <t>Chautauqua</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10403,7 +10401,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Corning - Battle Hill 115 kV line #4</t>
+          <t>Falconer - Warren 115 kV line #171</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -10426,17 +10424,17 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>09-2028</t>
+          <t>05-2026</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>10-2028</t>
+          <t>06-2026</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>11-2028</t>
+          <t>08-2026</t>
         </is>
       </c>
     </row>
@@ -10448,36 +10446,36 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>York Run Solar, LLC</t>
+          <t>Green Power Energy, LLC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>York Run Solar</t>
+          <t>Cody Road Wind Farm</t>
         </is>
       </c>
       <c r="E117" s="3" t="n">
-        <v>44273</v>
+        <v>44294</v>
       </c>
       <c r="F117" t="n">
-        <v>90</v>
+        <v>19.9</v>
       </c>
       <c r="G117" t="n">
-        <v>90</v>
+        <v>19.9</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Chautauqua</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10487,7 +10485,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Falconer - Warren 115 kV line #171</t>
+          <t>Cortland - Fenner Line #3 115 kV</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -10497,30 +10495,30 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N117" s="3" t="n">
-        <v>45596</v>
+        <v>45382</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>SRIS</t>
+          <t>FES, SIS</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>05-2026</t>
+          <t>07-2025</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>06-2026</t>
+          <t>07-2025</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>08-2026</t>
+          <t>07-2025</t>
         </is>
       </c>
     </row>
@@ -10532,36 +10530,36 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Green Power Energy, LLC</t>
+          <t>BR Project 1 LLC</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cody Road Wind Farm</t>
+          <t>BR Benson Mines Solar</t>
         </is>
       </c>
       <c r="E118" s="3" t="n">
-        <v>44294</v>
+        <v>44323</v>
       </c>
       <c r="F118" t="n">
-        <v>19.9</v>
+        <v>12.1</v>
       </c>
       <c r="G118" t="n">
-        <v>19.9</v>
+        <v>12.1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>St. Lawrence</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -10571,7 +10569,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Cortland - Fenner Line #3 115 kV</t>
+          <t>Brown's Falls to Newton Falls #22 34.5kV Line</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -10581,30 +10579,33 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N118" s="3" t="n">
-        <v>45382</v>
+        <v>45626</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>FES, SIS</t>
-        </is>
+          <t>SIS, FS</t>
+        </is>
+      </c>
+      <c r="Q118" s="3" t="n">
+        <v>45581</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>07-2025</t>
+          <t>07-2026</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>07-2025</t>
+          <t>08-2026</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>07-2025</t>
+          <t>10-2026</t>
         </is>
       </c>
     </row>
@@ -10616,27 +10617,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BR Project 1 LLC</t>
+          <t>ELP Stuyvesant Solar LLC</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>BR Benson Mines Solar</t>
+          <t>ELP Stuyvesant Solar</t>
         </is>
       </c>
       <c r="E119" s="3" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="F119" t="n">
-        <v>12.1</v>
+        <v>20</v>
       </c>
       <c r="G119" t="n">
-        <v>12.1</v>
+        <v>20</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -10645,7 +10646,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>St. Lawrence</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -10655,33 +10656,30 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Brown's Falls to Newton Falls #22 34.5kV Line</t>
+          <t>Valkin - Falls Park 115 kV line #19</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>Transco</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N119" s="3" t="n">
-        <v>45626</v>
+        <v>45322</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>SIS, FS</t>
-        </is>
-      </c>
-      <c r="Q119" s="3" t="n">
-        <v>45581</v>
+          <t>SIS</t>
+        </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>07-2026</t>
+          <t>08-2026</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -10691,7 +10689,7 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>10-2026</t>
+          <t>11-2026</t>
         </is>
       </c>
     </row>
@@ -10703,27 +10701,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ELP Stuyvesant Solar LLC</t>
+          <t>Fort Covington Solar LLC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ELP Stuyvesant Solar</t>
+          <t>NY125A - Fort Covington Solar</t>
         </is>
       </c>
       <c r="E120" s="3" t="n">
-        <v>44330</v>
+        <v>44336</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -10732,7 +10730,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -10742,40 +10740,40 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Valkin - Falls Park 115 kV line #19</t>
+          <t>Moses-Willis 230 kV (MW1)</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Transco</t>
+          <t>NYPA</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N120" s="3" t="n">
-        <v>45322</v>
+        <v>45596</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>SIS</t>
+          <t>SRIS</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>08-2026</t>
+          <t>07-2027</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>08-2026</t>
+          <t>07-2027</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>11-2026</t>
+          <t>08-2027</t>
         </is>
       </c>
     </row>
@@ -10787,27 +10785,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fort Covington Solar LLC</t>
+          <t>Boralex US Development</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NY125A - Fort Covington Solar</t>
+          <t>NY125B - Two Rivers Solar</t>
         </is>
       </c>
       <c r="E121" s="3" t="n">
         <v>44336</v>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -10816,7 +10814,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>St-Lawrence</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -10826,7 +10824,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Moses-Willis 230 kV (MW1)</t>
+          <t>Moses-Willis 230kV (MW2)</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -10871,27 +10869,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Boralex US Development</t>
+          <t>North Seneca Solar Project</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NY125B - Two Rivers Solar</t>
+          <t>North Seneca Solar Project, LLC</t>
         </is>
       </c>
       <c r="E122" s="3" t="n">
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G122" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -10900,7 +10898,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>St-Lawrence</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -10910,12 +10908,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Moses-Willis 230kV (MW2)</t>
+          <t>Hooks Road - Elbridge 115kV line#7</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>NYPA</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -10933,17 +10931,17 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>07-2027</t>
+          <t>06-2027</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>07-2027</t>
+          <t>06-2027</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>08-2027</t>
+          <t>09-2027</t>
         </is>
       </c>
     </row>
@@ -10955,27 +10953,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>North Seneca Solar Project</t>
+          <t>Crane Brook Solar Project</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>North Seneca Solar Project, LLC</t>
+          <t>Crane Brook Solar Project, LLC</t>
         </is>
       </c>
       <c r="E123" s="3" t="n">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="F123" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G123" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -10984,7 +10982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Cayuga</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -10994,7 +10992,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Hooks Road - Elbridge 115kV line#7</t>
+          <t>State St - Clinton Corn 115kV Line</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -11017,12 +11015,12 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>06-2027</t>
+          <t>07-2027</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>06-2027</t>
+          <t>08-2027</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -11039,36 +11037,36 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Crane Brook Solar Project</t>
+          <t>Petawatt Holdings, Inc.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Crane Brook Solar Project, LLC</t>
+          <t>St Lawrence Data and Agricultural Center</t>
         </is>
       </c>
       <c r="E124" s="3" t="n">
-        <v>44350</v>
+        <v>44375</v>
       </c>
       <c r="F124" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G124" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Cayuga</t>
+          <t>St. Lawrence</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -11078,7 +11076,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>State St - Clinton Corn 115kV Line</t>
+          <t>Dennison 115kV substation</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -11088,30 +11086,20 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N124" s="3" t="n">
-        <v>45596</v>
+        <v>44940</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>SRIS</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>07-2027</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>08-2027</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>09-2027</t>
+          <t>01-2026</t>
         </is>
       </c>
     </row>
@@ -11123,36 +11111,36 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Petawatt Holdings, Inc.</t>
+          <t>Nexamp Solar</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>St Lawrence Data and Agricultural Center</t>
+          <t>18405 Scotch Ridge</t>
         </is>
       </c>
       <c r="E125" s="3" t="n">
-        <v>44375</v>
+        <v>44412</v>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G125" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>St. Lawrence</t>
+          <t>Schenectady</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -11162,7 +11150,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Dennison 115kV substation</t>
+          <t>Rotterdam-Schoharie 69kV line#18</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -11172,11 +11160,11 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>SRIS/SIS Approved</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N125" s="3" t="n">
-        <v>44940</v>
+        <v>45382</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11185,7 +11173,17 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>01-2026</t>
+          <t>09-2025</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>10-2025</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>12-2025</t>
         </is>
       </c>
     </row>
@@ -11197,21 +11195,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Nexamp Solar</t>
+          <t>Sugar Maple Solar</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>18405 Scotch Ridge</t>
+          <t>Sugar Maple Energy Storage</t>
         </is>
       </c>
       <c r="E126" s="3" t="n">
-        <v>44412</v>
+        <v>44432</v>
       </c>
       <c r="F126" t="n">
         <v>20</v>
@@ -11221,12 +11219,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Energy Storage</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Schenectady</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -11236,7 +11234,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Rotterdam-Schoharie 69kV line#18</t>
+          <t>North Carthage-Taylorville #8 and Black River-Taylorville #2 115 kV lines</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -11246,11 +11244,11 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N126" s="3" t="n">
-        <v>45382</v>
+        <v>45596</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -11259,17 +11257,17 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>09-2025</t>
+          <t>06-2026</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>10-2025</t>
+          <t>09-2026</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>12-2026</t>
         </is>
       </c>
     </row>
@@ -11281,27 +11279,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sugar Maple Solar</t>
+          <t>Barrett Hempstead Battery Storage</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sugar Maple Energy Storage</t>
+          <t>Barrett Hempstead Battery Storage</t>
         </is>
       </c>
       <c r="E127" s="3" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G127" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -11310,7 +11308,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Jefferson</t>
+          <t>Nassau</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -11320,40 +11318,40 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>North Carthage-Taylorville #8 and Black River-Taylorville #2 115 kV lines</t>
+          <t>Barrett to Long Beach 33 kV circuit No 1(33-224)</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>LIPA</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N127" s="3" t="n">
-        <v>45596</v>
+        <v>45077</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>SIS</t>
+          <t>SRIS</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>06-2026</t>
+          <t>12-2024</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>09-2026</t>
+          <t>01-2025</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>12-2026</t>
+          <t>03-2025</t>
         </is>
       </c>
     </row>
@@ -11365,27 +11363,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Barrett Hempstead Battery Storage</t>
+          <t>Holtsville Brookhaven Battery Storage</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Barrett Hempstead Battery Storage</t>
+          <t>Holtsville Brookhaven Battery Storage</t>
         </is>
       </c>
       <c r="E128" s="3" t="n">
         <v>44461</v>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>40</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -11394,7 +11392,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Nassau</t>
+          <t>Suffolk</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -11404,7 +11402,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Barrett to Long Beach 33 kV circuit No 1(33-224)</t>
+          <t>Line 69-849 from West Yaphank to North Bellport</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -11418,7 +11416,7 @@
         </is>
       </c>
       <c r="N128" s="3" t="n">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -11427,17 +11425,17 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>12-2024</t>
+          <t>12-2025</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>01-2025</t>
+          <t>01-2026</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>03-2025</t>
+          <t>03-2026</t>
         </is>
       </c>
     </row>
@@ -11449,27 +11447,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Holtsville Brookhaven Battery Storage</t>
+          <t>Canal Southampton Battery Storage</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Holtsville Brookhaven Battery Storage</t>
+          <t>Canal Southampton Battery Storage</t>
         </is>
       </c>
       <c r="E129" s="3" t="n">
         <v>44461</v>
       </c>
       <c r="F129" t="n">
-        <v>79.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>79.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -11488,7 +11486,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Line 69-849 from West Yaphank to North Bellport</t>
+          <t>Canal Substation 138kV</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -11502,7 +11500,7 @@
         </is>
       </c>
       <c r="N129" s="3" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -11511,17 +11509,17 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>12-2024</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>01-2026</t>
+          <t>01-2025</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>03-2026</t>
+          <t>03-2025</t>
         </is>
       </c>
     </row>
@@ -11533,27 +11531,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Canal Southampton Battery Storage</t>
+          <t>Edwards Calverton Battery Storage</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Canal Southampton Battery Storage</t>
+          <t>Edwards Calverton Battery Storage</t>
         </is>
       </c>
       <c r="E130" s="3" t="n">
         <v>44461</v>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G130" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -11572,7 +11570,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Canal Substation 138kV</t>
+          <t>Edwards Avenue Substation at 138 kV</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -11617,36 +11615,36 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Edwards Calverton Battery Storage</t>
+          <t>Clean Path NY LLC</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Edwards Calverton Battery Storage</t>
+          <t>CPNY-X</t>
         </is>
       </c>
       <c r="E131" s="3" t="n">
-        <v>44461</v>
+        <v>44523</v>
       </c>
       <c r="F131" t="n">
-        <v>60</v>
+        <v>1300</v>
       </c>
       <c r="G131" t="n">
-        <v>60</v>
+        <v>1300</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Suffolk</t>
+          <t>DE, Queens</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -11656,21 +11654,21 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Edwards Avenue Substation at 138 kV</t>
+          <t>Fraser 345 kV and Rainey 345 kV substations</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>LIPA</t>
+          <t>NYSEG, ConEd</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N131" s="3" t="n">
-        <v>45077</v>
+        <v>45596</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -11679,17 +11677,17 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>12-2024</t>
+          <t>06-2028</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>01-2025</t>
+          <t>06-2028</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>03-2025</t>
+          <t>12-2028</t>
         </is>
       </c>
     </row>
@@ -11701,36 +11699,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Clean Path New York LLC</t>
+          <t>NY Power Authority / NY Transco LLC.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CPNY-X</t>
+          <t>Propel NY Energy - Alternate Solution 5</t>
         </is>
       </c>
       <c r="E132" s="3" t="n">
-        <v>44523</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1300</v>
+        <v>44480</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Delaware, Queens</t>
+          <t>Nassau, Queens, Bronx, Westchester</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -11740,38 +11732,28 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Fraser 345 kV and Rainey 345 kV substations</t>
+          <t>Sprain Brook 345 kV; Tremont 345 kV; East Garden City 345 kV; Barrett 138 kV; East Garden City 138 kV; Shore Road 138 kV; Syosset 138 kV; Ruland Rd 138 kV</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>NYSEG, ConEd</t>
+          <t>LIPA, ConEd, NYPA</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N132" s="3" t="n">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>SRIS</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
-        <is>
-          <t>06-2028</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>06-2028</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
         <is>
           <t>12-2028</t>
         </is>
@@ -11785,21 +11767,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>New York Power Authority / New York Transco LLC.</t>
+          <t>NY Power Authority</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Propel NY Energy - Alternate Solution 5</t>
+          <t>Richmond Spoke</t>
         </is>
       </c>
       <c r="E133" s="3" t="n">
-        <v>44480</v>
+        <v>44532</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -11808,7 +11790,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Nassau, Queens, Bronx, Westchester</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -11818,21 +11800,21 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Sprain Brook 345 kV; Tremont 345 kV; East Garden City 345 kV; Barrett 138 kV; East Garden City 138 kV; Shore Road 138 kV; Syosset 138 kV; Ruland Rd 138 kV</t>
+          <t>Goethals - Gowanus 345 kV</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>LIPA, ConEd, NYPA</t>
+          <t>ConEd</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N133" s="3" t="n">
-        <v>45657</v>
+        <v>44773</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -11841,7 +11823,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>12-2028</t>
+          <t>12-2030</t>
         </is>
       </c>
     </row>
@@ -11853,30 +11835,36 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>New York Power Authority</t>
+          <t>Saturn Energy Storage LLC</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Richmond Spoke</t>
+          <t>Queensbury BESS</t>
         </is>
       </c>
       <c r="E134" s="3" t="n">
-        <v>44532</v>
+        <v>44542</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="n">
+        <v>20</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Energy Storage</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Warren</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -11886,21 +11874,21 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Goethals - Gowanus 345 kV</t>
+          <t>Queensbury 34.5 kV substation</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>ConEd</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>SRIS/SIS Approved</t>
+          <t>FS in Progress</t>
         </is>
       </c>
       <c r="N134" s="3" t="n">
-        <v>44773</v>
+        <v>45443</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -11909,7 +11897,17 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>12-2030</t>
+          <t>09-2026</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>11-2026</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>12-2026</t>
         </is>
       </c>
     </row>
@@ -11921,36 +11919,36 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Saturn Energy Storage LLC</t>
+          <t>Sabey Data Center Properties, LLC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Queensbury BESS</t>
+          <t>SDC St. Lawrence</t>
         </is>
       </c>
       <c r="E135" s="3" t="n">
-        <v>44542</v>
+        <v>44550</v>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G135" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Warren</t>
+          <t>St. Lawrence</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -11960,21 +11958,21 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Queensbury 34.5 kV substation</t>
+          <t>Moses-Reynolds MRG-1 and Moses-Reynolds MRG-2 at 115kV</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>NYPA</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>FS in Progress</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N135" s="3" t="n">
-        <v>45443</v>
+        <v>44834</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -11983,17 +11981,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>09-2026</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>11-2026</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>12-2026</t>
+          <t>08-2025</t>
         </is>
       </c>
     </row>
@@ -12005,36 +11993,36 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sabey Data Center Properties, LLC</t>
+          <t>ELP Granby Solar II LLC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>SDC St. Lawrence</t>
+          <t>ELP Granby Solar II</t>
         </is>
       </c>
       <c r="E136" s="3" t="n">
-        <v>44550</v>
+        <v>44603</v>
       </c>
       <c r="F136" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G136" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>Energy Storage + Solar</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>St. Lawrence</t>
+          <t>Oswego</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -12044,30 +12032,43 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Moses-Reynolds MRG-1 and Moses-Reynolds MRG-2 at 115kV</t>
+          <t>Curtis Street - Teall 115 kV</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>NYPA</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>SRIS/SIS Approved</t>
+          <t>Accepted Cost Allocation/IA in Progress</t>
         </is>
       </c>
       <c r="N136" s="3" t="n">
-        <v>44834</v>
+        <v>45626</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>SIS</t>
-        </is>
+          <t>FES, SIS, FS</t>
+        </is>
+      </c>
+      <c r="Q136" s="3" t="n">
+        <v>45572</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>08-2025</t>
+          <t>09-2026</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>10-2026</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>12-2026</t>
         </is>
       </c>
     </row>
@@ -12079,36 +12080,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ELP Granby Solar II LLC</t>
+          <t>Queensboro Development, LLC</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ELP Granby Solar II</t>
+          <t>Queensboro Renewable Express Circuit A</t>
         </is>
       </c>
       <c r="E137" s="3" t="n">
-        <v>44603</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20</v>
-      </c>
-      <c r="G137" t="n">
-        <v>20</v>
+        <v>44666</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Energy Storage + Solar</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Oswego</t>
+          <t>Queens</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -12118,43 +12113,30 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Curtis Street - Teall 115 kV</t>
+          <t>Rainey 345 kV substation and Vernon 138 kV substation</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>ConEd</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Accepted Cost Allocation/IA in Progress</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N137" s="3" t="n">
-        <v>45626</v>
+        <v>44773</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>FES, SIS, FS</t>
-        </is>
-      </c>
-      <c r="Q137" s="3" t="n">
-        <v>45572</v>
+          <t>SIS</t>
+        </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>09-2026</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>10-2026</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>12-2026</t>
+          <t>04-2029</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12148,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -12176,7 +12158,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Queensboro Renewable Express Circuit A</t>
+          <t>Queensboro Renewable Express Circuit B</t>
         </is>
       </c>
       <c r="E138" s="3" t="n">
@@ -12213,7 +12195,7 @@
         </is>
       </c>
       <c r="N138" s="3" t="n">
-        <v>44773</v>
+        <v>45382</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -12234,30 +12216,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Queensboro Development, LLC</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation II</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Queensboro Renewable Express Circuit B</t>
+          <t>Kings Spoke</t>
         </is>
       </c>
       <c r="E139" s="3" t="n">
-        <v>44666</v>
+        <v>44816</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Queens</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12267,7 +12249,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Rainey 345 kV substation and Vernon 138 kV substation</t>
+          <t>Greenwood-Bensonhurst and Farragut-Brownsville 138 kV feeders</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -12277,20 +12259,15 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>SRIS/SIS Approved</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N139" s="3" t="n">
-        <v>45382</v>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>SIS</t>
-        </is>
+        <v>45046</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>04-2029</t>
+          <t>12-2028</t>
         </is>
       </c>
     </row>
@@ -12302,30 +12279,36 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation II</t>
+          <t>Air Products and Chemicals Inc</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Kings Spoke</t>
+          <t>Massena Green Hydrogen</t>
         </is>
       </c>
       <c r="E140" s="3" t="n">
-        <v>44816</v>
+        <v>44839</v>
+      </c>
+      <c r="F140" t="n">
+        <v>110</v>
+      </c>
+      <c r="G140" t="n">
+        <v>110</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>St Lawrence</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12335,25 +12318,30 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Greenwood-Bensonhurst and Farragut-Brownsville 138 kV feeders</t>
+          <t>Haverstock - Adirondack 345 kV line 1</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>ConEd</t>
+          <t>NYPA</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N140" s="3" t="n">
-        <v>45046</v>
+        <v>45291</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>SIS</t>
+        </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>12-2028</t>
+          <t>10-2025</t>
         </is>
       </c>
     </row>
@@ -12365,27 +12353,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Air Products and Chemicals Inc</t>
+          <t>Digihost Technologies, Inc.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Massena Green Hydrogen</t>
+          <t>Digihost load</t>
         </is>
       </c>
       <c r="E141" s="3" t="n">
-        <v>44839</v>
+        <v>44879</v>
       </c>
       <c r="F141" t="n">
-        <v>110</v>
+        <v>50.2</v>
       </c>
       <c r="G141" t="n">
-        <v>110</v>
+        <v>50.2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -12394,7 +12382,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>St Lawrence</t>
+          <t>Niagara</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -12404,30 +12392,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Haverstock - Adirondack 345 kV line 1</t>
+          <t>Walck Rd. 115kV</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>NYPA</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>SRIS/SIS Approved</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N141" s="3" t="n">
-        <v>45291</v>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>SIS</t>
-        </is>
+        <v>45107</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>10-2025</t>
+          <t>04-2024</t>
         </is>
       </c>
     </row>
@@ -12439,27 +12422,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Digihost Technologies, Inc.</t>
+          <t>GCEDC</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Digihost load</t>
+          <t>580 STAMP load increase</t>
         </is>
       </c>
       <c r="E142" s="3" t="n">
-        <v>44879</v>
+        <v>44897</v>
       </c>
       <c r="F142" t="n">
-        <v>50.2</v>
+        <v>300</v>
       </c>
       <c r="G142" t="n">
-        <v>50.2</v>
+        <v>300</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -12468,7 +12451,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Niagara</t>
+          <t>Genesee</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12478,7 +12461,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Walck Rd. 115kV</t>
+          <t>115 kv STAMP substation</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -12488,15 +12471,20 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N142" s="3" t="n">
-        <v>45107</v>
+        <v>45291</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>SIS</t>
+        </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>12-2025</t>
         </is>
       </c>
     </row>
@@ -12508,36 +12496,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GCEDC</t>
+          <t>NY Power Authority</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>580 STAMP load increase</t>
+          <t>Westchester Wind</t>
         </is>
       </c>
       <c r="E143" s="3" t="n">
-        <v>44897</v>
-      </c>
-      <c r="F143" t="n">
-        <v>300</v>
-      </c>
-      <c r="G143" t="n">
-        <v>300</v>
+        <v>44987</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Genesee</t>
+          <t>Westchester</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12547,30 +12529,25 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>115 kv STAMP substation</t>
+          <t>Sprainbrook-Eastview 345kV #1N, #1S, and #2S.</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>ConEd</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>SRIS/SIS Approved</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N143" s="3" t="n">
-        <v>45291</v>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>SIS</t>
-        </is>
+        <v>45077</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>12-2028</t>
         </is>
       </c>
     </row>
@@ -12582,30 +12559,36 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>New York Power Authority</t>
+          <t>Micron NY Semiconductor Manufacturing LLC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Westchester Wind</t>
+          <t>White Pine Phase 1</t>
         </is>
       </c>
       <c r="E144" s="3" t="n">
-        <v>44987</v>
+        <v>44996</v>
+      </c>
+      <c r="F144" t="n">
+        <v>480</v>
+      </c>
+      <c r="G144" t="n">
+        <v>480</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Westchester</t>
+          <t>Onondaga</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12615,25 +12598,30 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Sprainbrook-Eastview 345kV #1N, #1S, and #2S.</t>
+          <t>Clay 345 kV Substation</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>ConEd</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
+          <t>SRIS/SIS Approved</t>
         </is>
       </c>
       <c r="N144" s="3" t="n">
-        <v>45077</v>
+        <v>45351</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>SIS</t>
+        </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>12-2028</t>
+          <t>06-2026</t>
         </is>
       </c>
     </row>
@@ -12645,36 +12633,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Micron New York Semiconductor Manufacturing LLC</t>
+          <t>North Bergen Liberty Generating LLC</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>White Pine Phase 1</t>
+          <t>Liberty Green Line</t>
         </is>
       </c>
       <c r="E145" s="3" t="n">
-        <v>44996</v>
-      </c>
-      <c r="F145" t="n">
-        <v>480</v>
-      </c>
-      <c r="G145" t="n">
-        <v>480</v>
+        <v>45058</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Onondaga</t>
+          <t>NY County</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12684,25 +12666,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Clay 345 kV Substation</t>
+          <t>Con Edison W 49th St 345kV Substation</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>ConEd, PJM</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>SRIS/SIS in Progress</t>
+          <t>FES Pending</t>
         </is>
       </c>
       <c r="N145" s="3" t="n">
-        <v>45351</v>
+        <v>45169</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>06-2026</t>
+          <t>01-2029</t>
         </is>
       </c>
     </row>
@@ -12714,30 +12696,36 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>North Bergen Liberty Generating LLC</t>
+          <t>Micron NY Semiconductor Manufacturing LLC</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Liberty Green Line</t>
+          <t>Micron Fab 2</t>
         </is>
       </c>
       <c r="E146" s="3" t="n">
-        <v>45058</v>
+        <v>45230</v>
+      </c>
+      <c r="F146" t="n">
+        <v>576</v>
+      </c>
+      <c r="G146" t="n">
+        <v>507</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>New York County</t>
+          <t>Onondaga</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12747,25 +12735,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Con Edison W 49th St 345kV Substation</t>
+          <t>National Grid Clay 345 kV Substation</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>ConEd, PJM</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>FES Pending</t>
+          <t>SRIS/SIS in Progress</t>
         </is>
       </c>
       <c r="N146" s="3" t="n">
-        <v>45169</v>
+        <v>45473</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>01-2029</t>
+          <t>09-2030</t>
         </is>
       </c>
     </row>
@@ -12777,27 +12765,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Micron New York Semiconductor Manufacturing LLC</t>
+          <t>P&amp;M Brick LLC</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Micron Fab 2</t>
+          <t>POWI Project</t>
         </is>
       </c>
       <c r="E147" s="3" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="F147" t="n">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="G147" t="n">
-        <v>507</v>
+        <v>50</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -12806,7 +12794,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Onondaga</t>
+          <t>Albany</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -12816,7 +12804,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>National Grid Clay 345 kV Substation</t>
+          <t>New Scotland to Knickerbocker 345kV line</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12830,11 +12818,11 @@
         </is>
       </c>
       <c r="N147" s="3" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>09-2030</t>
+          <t>01-2027</t>
         </is>
       </c>
     </row>
@@ -12846,36 +12834,30 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>P&amp;M Brick LLC</t>
+          <t>Consolidated Edison Company of NY</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>POWI Project</t>
+          <t>Designated Public Policy Project Rainey Breaker Replacement</t>
         </is>
       </c>
       <c r="E148" s="3" t="n">
-        <v>45260</v>
-      </c>
-      <c r="F148" t="n">
-        <v>50</v>
-      </c>
-      <c r="G148" t="n">
-        <v>50</v>
+        <v>45303</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Albany</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -12885,17 +12867,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>New Scotland to Knickerbocker 345kV line</t>
+          <t>Rainey 345kV Substation</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>ConEd</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>SRIS/SIS in Progress</t>
+          <t>FS Pending</t>
         </is>
       </c>
       <c r="N148" s="3" t="n">
@@ -12903,7 +12885,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>01-2027</t>
+          <t>05-2030</t>
         </is>
       </c>
     </row>
@@ -12915,30 +12897,36 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Consolidated Edison Company of New York</t>
+          <t>Lake Mariner Data LLC</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Designated Public Policy Project Rainey Breaker Replacement</t>
+          <t>Lake Mariner Data II</t>
         </is>
       </c>
       <c r="E149" s="3" t="n">
-        <v>45303</v>
+        <v>45314</v>
+      </c>
+      <c r="F149" t="n">
+        <v>250</v>
+      </c>
+      <c r="G149" t="n">
+        <v>250</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Niagara</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -12948,17 +12936,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Rainey 345kV Substation</t>
+          <t>Kintigh 345kV Substation</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>ConEd</t>
+          <t>NYSEG</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>FS Pending</t>
+          <t>SRIS/SIS in Progress</t>
         </is>
       </c>
       <c r="N149" s="3" t="n">
@@ -12966,7 +12954,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>05-2030</t>
+          <t>04-2025</t>
         </is>
       </c>
     </row>
@@ -12978,36 +12966,30 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Lake Mariner Data LLC</t>
+          <t>NYSEG</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Lake Mariner Data II</t>
+          <t>Meyer Substation Rebuild and South Perry Substation Rebuild</t>
         </is>
       </c>
       <c r="E150" s="3" t="n">
-        <v>45314</v>
-      </c>
-      <c r="F150" t="n">
-        <v>250</v>
-      </c>
-      <c r="G150" t="n">
-        <v>250</v>
+        <v>45324</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Niagara</t>
+          <t>Wyoming/Livingston</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -13017,7 +12999,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Kintigh 345kV Substation</t>
+          <t>Meyer 115kV, 34.5, 230kV South Perry 115kV, 34.5kV, 69kV</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -13027,15 +13009,15 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>SRIS/SIS in Progress</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N150" s="3" t="n">
-        <v>45504</v>
+        <v>45382</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>04-2025</t>
+          <t>12-2030</t>
         </is>
       </c>
     </row>
@@ -13047,21 +13029,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NYSEG</t>
+          <t>National Grid</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Meyer Substation Rebuild and South Perry Substation Rebuild</t>
+          <t>Ames Road Station</t>
         </is>
       </c>
       <c r="E151" s="3" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -13070,7 +13052,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Wyoming/Livingston</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -13080,12 +13062,12 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Meyer 115kV, 34.5, 230kV South Perry 115kV, 34.5kV, 69kV</t>
+          <t>345kV Edic Princetown 351 345kV Edic Princetwon 352 115kV Saint Johnsville Mashville 11 115kV Clinton Marshville 12</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>NYSEG</t>
+          <t>NM-NG, NYPA</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -13094,11 +13076,11 @@
         </is>
       </c>
       <c r="N151" s="3" t="n">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>12-2030</t>
+          <t>01-2028</t>
         </is>
       </c>
     </row>
@@ -13110,30 +13092,36 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>National Grid</t>
+          <t>Niagara Falls Redevelopment LLC</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ames Road Station</t>
+          <t>Niagara Digital Campus</t>
         </is>
       </c>
       <c r="E152" s="3" t="n">
-        <v>45327</v>
+        <v>45391</v>
+      </c>
+      <c r="F152" t="n">
+        <v>140</v>
+      </c>
+      <c r="G152" t="n">
+        <v>140</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Niagara</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -13143,12 +13131,12 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>345kV Edic Princetown 351 345kV Edic Princetwon 352 115kV Saint Johnsville Mashville 11 115kV Clinton Marshville 12</t>
+          <t>Adams to Packard 115kV lines 187 and 188</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>NM-NG, NYPA</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -13157,11 +13145,11 @@
         </is>
       </c>
       <c r="N152" s="3" t="n">
-        <v>45351</v>
+        <v>45504</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>01-2028</t>
+          <t>06-2026</t>
         </is>
       </c>
     </row>
@@ -13173,27 +13161,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Niagara Falls Redevelopment LLC</t>
+          <t>Cayuga Operating Company, LLC</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Niagara Digital Campus</t>
+          <t>Cayuga Compute</t>
         </is>
       </c>
       <c r="E153" s="3" t="n">
-        <v>45391</v>
+        <v>45406</v>
       </c>
       <c r="F153" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G153" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -13202,7 +13190,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Niagara</t>
+          <t>Tompkins</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -13212,25 +13200,25 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Adams to Packard 115kV lines 187 and 188</t>
+          <t>Milliken substation 115kV</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>NYSEG</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
+          <t>SRIS/SIS in Progress</t>
         </is>
       </c>
       <c r="N153" s="3" t="n">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>06-2026</t>
+          <t>10-2025</t>
         </is>
       </c>
     </row>
@@ -13242,36 +13230,30 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cayuga Operating Company, LLC</t>
+          <t>energyRe Giga-Projects USA, LLC</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cayuga Compute</t>
+          <t>Clean Borough Power Link #1</t>
         </is>
       </c>
       <c r="E154" s="3" t="n">
-        <v>45406</v>
-      </c>
-      <c r="F154" t="n">
-        <v>150</v>
-      </c>
-      <c r="G154" t="n">
-        <v>150</v>
+        <v>45442</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Tompkins</t>
+          <t>Richmond,Kings,Queens,West Chester</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -13281,25 +13263,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Milliken substation 115kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Goethals 345kV, Astoria Annex 345kV, Sprain Brook 345kV</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>NYSEG</t>
+          <t>CONED, NYPA</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>SRIS/SIS in Progress</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N154" s="3" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>10-2025</t>
+          <t>12-2032</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13293,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -13321,7 +13303,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Clean Borough Power Link #1</t>
+          <t>Clean Borough Power Link #2</t>
         </is>
       </c>
       <c r="E155" s="3" t="n">
@@ -13334,7 +13316,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Richmond,Kings,Queens,West Chester</t>
+          <t>NY, Richmond, Kings</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -13344,12 +13326,12 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Goethals 345kV, Astoria Annex 345kV, Sprain Brook 345kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; West 49 St - East13 St 345kV lines; Goethals 345kV,</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>CONED, NYPA</t>
+          <t>CONED</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -13374,7 +13356,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -13384,7 +13366,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Clean Borough Power Link #2</t>
+          <t>Clean Borough Power Link #3</t>
         </is>
       </c>
       <c r="E156" s="3" t="n">
@@ -13397,7 +13379,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>New York, Richmond, Kings</t>
+          <t>Richmond, NY, Kings, Queens</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -13407,12 +13389,12 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; West 49 St - East13 St 345kV lines; Goethals 345kV,</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Mott Haven - Rainey 345kV lines; Rainey 345kV; Astoria West 138kV; Farragut 345kV; Astoria Annex 345kV, Goethals 345 kV</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>CONED</t>
+          <t>CONED, NYPA</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -13437,21 +13419,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>energyRe Giga-Projects USA, LLC</t>
+          <t>Viridon NY Inc.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Clean Borough Power Link #3</t>
+          <t>Liberty Link 1</t>
         </is>
       </c>
       <c r="E157" s="3" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -13460,7 +13442,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Richmond, New York, Kings, Queens</t>
+          <t>Kings, Westchester, Richmond</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13470,12 +13452,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Mott Haven - Rainey 345kV lines; Rainey 345kV; Astoria West 138kV; Farragut 345kV; Astoria Annex 345kV, Goethals 345 kV</t>
+          <t>Brooklyn Clean Energy Hub (BCEH) 345kV, Farragut 345kV, Sprain Brook 345kV, Goethals 345kV</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>CONED, NYPA</t>
+          <t>Con Edison</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -13484,7 +13466,7 @@
         </is>
       </c>
       <c r="N157" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -13500,17 +13482,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Viridon New York Inc.</t>
+          <t>Viridon NY Inc.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Liberty Link 1</t>
+          <t>Liberty Link 2</t>
         </is>
       </c>
       <c r="E158" s="3" t="n">
@@ -13563,17 +13545,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Viridon New York Inc.</t>
+          <t>Viridon NY Inc.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Liberty Link 2</t>
+          <t>Liberty Link 3</t>
         </is>
       </c>
       <c r="E159" s="3" t="n">
@@ -13586,7 +13568,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Kings, Westchester, Richmond</t>
+          <t>Kings, NY, Richmond</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -13596,7 +13578,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub (BCEH) 345kV, Farragut 345kV, Sprain Brook 345kV, Goethals 345kV</t>
+          <t>Brooklyn Clean Energy Hub (BCEH) 345kV, Farragut 345kV, W49th Street 345kV - E13th Street 345 kV lines, Goethals 345kV</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13626,21 +13608,21 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Viridon New York Inc.</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Liberty Link 3</t>
+          <t>Energy Link NY Solution 1</t>
         </is>
       </c>
       <c r="E160" s="3" t="n">
-        <v>45443</v>
+        <v>45456</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -13649,7 +13631,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Kings, New York, Richmond</t>
+          <t>Kings, Westchester, Queens, Richmond</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -13659,12 +13641,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub (BCEH) 345kV, Farragut 345kV, W49th Street 345kV - E13th Street 345 kV lines, Goethals 345kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Goethals 345kV, Astoria Annex 345kV, Sprain Brook 345kV</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Con Edison</t>
+          <t>CONED, NYPA</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -13673,11 +13655,11 @@
         </is>
       </c>
       <c r="N160" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>12-2032</t>
+          <t>01-2033</t>
         </is>
       </c>
     </row>
@@ -13689,17 +13671,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 1</t>
+          <t>Energy Link NY Solution 2</t>
         </is>
       </c>
       <c r="E161" s="3" t="n">
@@ -13722,7 +13704,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Goethals 345kV, Astoria Annex 345kV, Sprain Brook 345kV</t>
+          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Sprain Brook 345 kV, Astoria Annex 345 kV, Goethals 345 kV</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13736,7 +13718,7 @@
         </is>
       </c>
       <c r="N161" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -13752,17 +13734,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 2</t>
+          <t>Energy Link NY Solution 3</t>
         </is>
       </c>
       <c r="E162" s="3" t="n">
@@ -13785,7 +13767,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Sprain Brook 345 kV, Astoria Annex 345 kV, Goethals 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Sprain Brook 345 kV, Astoria Annex 345 kV, Goethals 345 kV, Gowanus- Goethals 345 kV lines</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13815,17 +13797,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 3</t>
+          <t>Energy Link NY Solution 4</t>
         </is>
       </c>
       <c r="E163" s="3" t="n">
@@ -13848,7 +13830,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Sprain Brook 345 kV, Astoria Annex 345 kV, Goethals 345 kV, Gowanus- Goethals 345 kV lines</t>
+          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Sprain Brook 345 kV, Astoria Annex 345 kV, Goethals 345 kV</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13878,17 +13860,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 4</t>
+          <t>Energy Link NY Solution 5</t>
         </is>
       </c>
       <c r="E164" s="3" t="n">
@@ -13901,7 +13883,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Kings, Westchester, Queens, Richmond</t>
+          <t>Kings, Richmond, Queens, Westchester</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -13911,7 +13893,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Sprain Brook 345 kV, Astoria Annex 345 kV, Goethals 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Goethals 345kV, Astoria Annex 345kV, Sprain Brook 345kV</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13941,17 +13923,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1696</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 5</t>
+          <t>Energy Link NY Solution 6</t>
         </is>
       </c>
       <c r="E165" s="3" t="n">
@@ -13964,7 +13946,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Kings, Richmond, Queens, Westchester</t>
+          <t>Kings, Westchester, Queens, Richmond</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -13974,7 +13956,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Goethals 345kV, Astoria Annex 345kV, Sprain Brook 345kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Rainey 345kV; Astoria West 138kV; Mott Haven - Rainey 345kV lines; Goethals 345kV; Astoria Annex 345kV; Sprain Brook 345kV</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -13988,7 +13970,7 @@
         </is>
       </c>
       <c r="N165" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -14004,17 +13986,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 6</t>
+          <t>Energy Link NY Solution 7</t>
         </is>
       </c>
       <c r="E166" s="3" t="n">
@@ -14027,7 +14009,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Kings, Westchester, Queens, Richmond</t>
+          <t>Brooklyn &amp; Staten Island</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -14037,7 +14019,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Rainey 345kV; Astoria West 138kV; Mott Haven - Rainey 345kV lines; Goethals 345kV; Astoria Annex 345kV; Sprain Brook 345kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Rainey 345kV; Astoria West 138kV; Mott Haven - Rainey 345kV lines; Goethals 345kV, Astoria Annex 345kV; Sprain Brook 345kV; Gowanus- Goethals 345kV lines</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -14051,7 +14033,7 @@
         </is>
       </c>
       <c r="N166" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -14067,17 +14049,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 7</t>
+          <t>Energy Link NY Solution 10</t>
         </is>
       </c>
       <c r="E167" s="3" t="n">
@@ -14090,7 +14072,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Brooklyn &amp; Staten Island</t>
+          <t>Kings, Westchester, Queens, Richmond</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -14100,7 +14082,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Farragut 345kV; Rainey 345kV; Astoria West 138kV; Mott Haven - Rainey 345kV lines; Goethals 345kV, Astoria Annex 345kV; Sprain Brook 345kV; Gowanus- Goethals 345kV lines</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Sprain Brook 345kV , Astoria Annex 345kV , Goethals 345kV , Mott Haven - Rainey 345kV substations, Gowanus - Goethals 345kV , Astoria West 345 kV, Rainey 345 kV</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -14114,7 +14096,7 @@
         </is>
       </c>
       <c r="N167" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -14130,17 +14112,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 10</t>
+          <t>Five Boro Energy Connect ? Mint</t>
         </is>
       </c>
       <c r="E168" s="3" t="n">
@@ -14153,7 +14135,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Kings, Westchester, Queens, Richmond</t>
+          <t>Kings,Queens,NY,Bronx,DE,</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -14163,12 +14145,12 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Sprain Brook 345kV , Astoria Annex 345kV , Goethals 345kV , Mott Haven - Rainey 345kV substations, Gowanus - Goethals 345kV , Astoria West 345 kV, Rainey 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Mott Haven 345kV, Astoria Annex 345kV, Fraser 345kV</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>CONED, NYPA</t>
+          <t>CONED, NYPA, NYSEG</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -14177,11 +14159,11 @@
         </is>
       </c>
       <c r="N168" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>01-2033</t>
+          <t>10-2032</t>
         </is>
       </c>
     </row>
@@ -14193,21 +14175,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Mint</t>
+          <t>Energy Link NY Solution 8</t>
         </is>
       </c>
       <c r="E169" s="3" t="n">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -14216,7 +14198,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Kings,Queens,NY,Bronx,Delaware,</t>
+          <t>Kings,Bronx,Queens,Westchester,Richmond</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -14226,12 +14208,12 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Mott Haven 345kV, Astoria Annex 345kV, Fraser 345kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Mott Haven 345kV; Rainey 345kV; Gowanus 345kV; Sprain Brook 345kV ; Goethals 345 kV</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>CONED, NYPA, NYSEG</t>
+          <t>CONED</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -14240,11 +14222,11 @@
         </is>
       </c>
       <c r="N169" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>10-2032</t>
+          <t>01-2033</t>
         </is>
       </c>
     </row>
@@ -14256,17 +14238,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Transco LLC</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 8</t>
+          <t>Energy Link NY Solution 9</t>
         </is>
       </c>
       <c r="E170" s="3" t="n">
@@ -14289,7 +14271,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Mott Haven 345kV; Rainey 345kV; Gowanus 345kV; Sprain Brook 345kV ; Goethals 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV; Mott Haven 345kV; Rainey 345kV; Gowanus 345kV; Sprain Brook 345kV, Goethals 345 kV</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -14319,17 +14301,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>New York Transco LLC</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Energy Link New York Solution 9</t>
+          <t>Five Boro Energy Connect ? Sage</t>
         </is>
       </c>
       <c r="E171" s="3" t="n">
@@ -14342,7 +14324,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Kings,Bronx,Queens,Westchester,Richmond</t>
+          <t>Kings, Queens, NY, Bronx</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -14352,12 +14334,12 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV; Mott Haven 345kV; Rainey 345kV; Gowanus 345kV; Sprain Brook 345kV, Goethals 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Academy 345 kV, Astoria Annex 345 kV, Mott Haven 345 kV, Mott Haven - Rainey 345 kV Lines,</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>CONED</t>
+          <t>CONED, NYPA</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -14366,11 +14348,11 @@
         </is>
       </c>
       <c r="N171" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>01-2033</t>
+          <t>09-2032</t>
         </is>
       </c>
     </row>
@@ -14382,17 +14364,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Sage</t>
+          <t>Five Boro Energy Connect - Ruby</t>
         </is>
       </c>
       <c r="E172" s="3" t="n">
@@ -14405,7 +14387,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Kings, Queens, New York, Bronx</t>
+          <t>Kings, Queens, NY, Bronx</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -14415,7 +14397,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Academy 345 kV, Astoria Annex 345 kV, Mott Haven 345 kV, Mott Haven - Rainey 345 kV Lines,</t>
+          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Rainey 345 kV, West 49 Street 345 kV, Mott Haven 345 kV, Astoria Annex 345 kV, Mott Haven - Rainey 345kV Lines</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14429,7 +14411,7 @@
         </is>
       </c>
       <c r="N172" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -14445,17 +14427,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect - Ruby</t>
+          <t>Five Boro Energy Connect - Rose</t>
         </is>
       </c>
       <c r="E173" s="3" t="n">
@@ -14468,7 +14450,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Kings, Queens, New York, Bronx</t>
+          <t>Kings, Queens, NY, Bronx</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -14508,17 +14490,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect - Rose</t>
+          <t>Five Boro Energy Connect ? Olive</t>
         </is>
       </c>
       <c r="E174" s="3" t="n">
@@ -14531,7 +14513,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Kings, Queens, New York, Bronx</t>
+          <t>Kings/Queens/NY/Bronx/DE</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -14541,12 +14523,12 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Rainey 345 kV, West 49 Street 345 kV, Mott Haven 345 kV, Astoria Annex 345 kV, Mott Haven - Rainey 345kV Lines</t>
+          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Rainey 345 kV, Academy 345 kV, Mott Haven 345 kV, Astoria Annex 345kV , Fraser, Mott Haven - Rainey 345kV Lines,</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>CONED, NYPA</t>
+          <t>CONED, NYPA, NYSEG</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -14555,11 +14537,11 @@
         </is>
       </c>
       <c r="N174" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>09-2032</t>
+          <t>06-2033</t>
         </is>
       </c>
     </row>
@@ -14571,21 +14553,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Olive</t>
+          <t>Five Boro Energy Connect ? Kelly</t>
         </is>
       </c>
       <c r="E175" s="3" t="n">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -14594,7 +14576,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Kings/Queens/NY/Bronx/Delaware</t>
+          <t>Kings, Queens, NY, Bronx</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14604,12 +14586,12 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345 kV, Farragut 345 kV, Rainey 345 kV, Academy 345 kV, Mott Haven 345 kV, Astoria Annex 345kV , Fraser, Mott Haven - Rainey 345kV Lines,</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Mott Haven 345 kV, Astoria Annex 345kV, Tremont 345kV, Mott Haven - Rainey 345kV Lines,</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>CONED, NYPA, NYSEG</t>
+          <t>Con Edison, NYPA</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -14618,11 +14600,11 @@
         </is>
       </c>
       <c r="N175" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>06-2033</t>
+          <t>08-2033</t>
         </is>
       </c>
     </row>
@@ -14634,17 +14616,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Kelly</t>
+          <t>Five Boro Energy Connect ? Hazel</t>
         </is>
       </c>
       <c r="E176" s="3" t="n">
@@ -14657,7 +14639,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Kings, Queens, New York, Bronx</t>
+          <t>Kings/Queens/NY/Bronx/DE</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -14667,12 +14649,12 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Mott Haven 345 kV, Astoria Annex 345kV, Tremont 345kV, Mott Haven - Rainey 345kV Lines,</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Mott Haven 345kV, Astoria Annex 345kV, Fraser 345kV, Mott Haven - Rainey 345kV Lines,</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Con Edison, NYPA</t>
+          <t>Con Edison, NYPA, NYSEG</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -14681,11 +14663,11 @@
         </is>
       </c>
       <c r="N176" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>08-2033</t>
+          <t>12-2033</t>
         </is>
       </c>
     </row>
@@ -14697,17 +14679,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Hazel</t>
+          <t>Five Boro Energy Connect ? Navy</t>
         </is>
       </c>
       <c r="E177" s="3" t="n">
@@ -14720,7 +14702,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Kings/Queens/NY/Bronx/Delaware</t>
+          <t>Kings,Queens,Bronx,Richmond,Westchester</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -14730,12 +14712,12 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Mott Haven 345kV, Astoria Annex 345kV, Fraser 345kV, Mott Haven - Rainey 345kV Lines,</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Astoria Annex 345kV, Mott Haven 345kV, Rainey 345kV, Dunwoodie 345kV, Sprain Brook 345kV, Gowanus - Goethals 345kV Lines, Mott Haven - Rainey 345kV Lines, Gowanus 345 kV</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Con Edison, NYPA, NYSEG</t>
+          <t>Con Edison, NYPA</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -14748,7 +14730,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>12-2033</t>
+          <t>09-2032</t>
         </is>
       </c>
     </row>
@@ -14760,17 +14742,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Navy</t>
+          <t>Five Boro Energy Connect ? Royal</t>
         </is>
       </c>
       <c r="E178" s="3" t="n">
@@ -14783,7 +14765,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Kings,Queens,Bronx,Richmond,Westchester</t>
+          <t>Kings,Queens,Bronx,Richmond,Westchester,</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14793,7 +14775,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Astoria Annex 345kV, Mott Haven 345kV, Rainey 345kV, Dunwoodie 345kV, Sprain Brook 345kV, Gowanus - Goethals 345kV Lines, Mott Haven - Rainey 345kV Lines, Gowanus 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Astoria Annex 345kV, Mott Haven 345kV, Tremont 345kV, W49th St 345kV, Gowanus - Goethals 345kV Lines, Mott Haven - Rainey 345kV Lines, Gowanus 345 kV</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -14811,7 +14793,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>09-2032</t>
+          <t>05-2033</t>
         </is>
       </c>
     </row>
@@ -14823,17 +14805,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Royal</t>
+          <t>Five Boro Energy Connect ? Golden</t>
         </is>
       </c>
       <c r="E179" s="3" t="n">
@@ -14846,7 +14828,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Kings,Queens,Bronx,Richmond,Westchester,</t>
+          <t>Kings,Queens,NY,Bronx,Westchester,Delawa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14856,12 +14838,12 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Astoria Annex 345kV, Mott Haven 345kV, Tremont 345kV, W49th St 345kV, Gowanus - Goethals 345kV Lines, Mott Haven - Rainey 345kV Lines, Gowanus 345 kV</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Astoria Annex 345kV, Mott Haven 345kV, Dunwoodie 345kV, Fraser 345kV, Vernon 138kV, Mott Haven - Rainey 345kV Lines</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Con Edison, NYPA</t>
+          <t>Con Edison, NYPA, NYSEG,</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14874,7 +14856,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>05-2033</t>
+          <t>10-2033</t>
         </is>
       </c>
     </row>
@@ -14886,17 +14868,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Golden</t>
+          <t>Five Boro Energy Connect ? Honey</t>
         </is>
       </c>
       <c r="E180" s="3" t="n">
@@ -14909,7 +14891,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Kings,Queens,NY,Bronx,Westchester,Delawa</t>
+          <t>Kings,Queens,NY,Bronx,DE</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14919,7 +14901,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Astoria Annex 345kV, Mott Haven 345kV, Dunwoodie 345kV, Fraser 345kV, Vernon 138kV, Mott Haven - Rainey 345kV Lines</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Astoria Annex 345kV, Mott Haven 345kV, Vernon 138kV, Fraser 345kV,</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14949,17 +14931,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>NY Power Authority &amp; LS Power Grid NY Corporation I</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Honey</t>
+          <t>Five Boro Energy Connect ? Cobalt</t>
         </is>
       </c>
       <c r="E181" s="3" t="n">
@@ -14972,7 +14954,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Kings,Queens,NY,Bronx,Delaware</t>
+          <t>Kings,Queens,NY,Bronx,Richmond,DE</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14982,12 +14964,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Astoria Annex 345kV, Mott Haven 345kV, Vernon 138kV, Fraser 345kV,</t>
+          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Astoria Annex 345kV, Mott Haven 345kV, Gowanus - Goethals 345kV Lines, Mott Haven - Rainey 345kV Lines, Fraser 345kV, Gowanus 345</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Con Edison, NYPA, NYSEG,</t>
+          <t>Con Edison, NYPA, NYSEG</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -15012,30 +14994,36 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>New York Power Authority &amp; LS Power Grid New York Corporation I</t>
+          <t>Project Sycamore - Orangeburg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Five Boro Energy Connect ? Cobalt</t>
+          <t>Project Sycamore Orangeburg</t>
         </is>
       </c>
       <c r="E182" s="3" t="n">
-        <v>45460</v>
+        <v>45462</v>
+      </c>
+      <c r="F182" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="G182" t="n">
+        <v>25.3</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Kings,Queens,NY,Bronx,Richmond,Delaware</t>
+          <t>Rockland</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -15045,12 +15033,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Brooklyn Clean Energy Hub 345kV, Farragut 345kV, Rainey 345kV, Academy 345kV, Astoria Annex 345kV, Mott Haven 345kV, Gowanus - Goethals 345kV Lines, Mott Haven - Rainey 345kV Lines, Fraser 345kV, Gowanus 345</t>
+          <t>Oak Street 138kV</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Con Edison, NYPA, NYSEG</t>
+          <t>O&amp;R</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -15063,7 +15051,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>10-2033</t>
+          <t>01-2025</t>
         </is>
       </c>
     </row>
@@ -15075,27 +15063,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Project Sycamore - Orangeburg</t>
+          <t>Robert Delcalzo</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Project Sycamore Orangeburg</t>
+          <t>Hudson Valley Data Center</t>
         </is>
       </c>
       <c r="E183" s="3" t="n">
-        <v>45462</v>
+        <v>45475</v>
       </c>
       <c r="F183" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="G183" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -15114,7 +15102,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Oak Street 138kV</t>
+          <t>Line 60 138KV - Ramp to Tallman</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15128,11 +15116,11 @@
         </is>
       </c>
       <c r="N183" s="3" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>01-2025</t>
+          <t>02-2027</t>
         </is>
       </c>
     </row>
@@ -15144,27 +15132,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Robert Delcalzo</t>
+          <t>Jerry Martin</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hudson Valley Data Center</t>
+          <t>1547 CSR - Orangeburg LLC</t>
         </is>
       </c>
       <c r="E184" s="3" t="n">
         <v>45475</v>
       </c>
       <c r="F184" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G184" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -15178,12 +15166,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Line 60 138KV - Ramp to Tallman</t>
+          <t>138kV Line 703 between Corporate Drive and Harings Corner</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15197,11 +15185,11 @@
         </is>
       </c>
       <c r="N184" s="3" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>02-2027</t>
+          <t>01-2027</t>
         </is>
       </c>
     </row>
@@ -15213,21 +15201,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Jerry Martin</t>
+          <t>DataBank Holdings, LLC</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1547 CSR - Orangeburg LLC</t>
+          <t>Orangeburg Expansion Phase 2</t>
         </is>
       </c>
       <c r="E185" s="3" t="n">
-        <v>45475</v>
+        <v>45509</v>
       </c>
       <c r="F185" t="n">
         <v>60</v>
@@ -15242,17 +15230,17 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Rockland</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>138kV Line 703 between Corporate Drive and Harings Corner</t>
+          <t>Oak St 38kV substation</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15266,11 +15254,11 @@
         </is>
       </c>
       <c r="N185" s="3" t="n">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>01-2027</t>
+          <t>12-2027</t>
         </is>
       </c>
     </row>
@@ -15282,27 +15270,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DataBank Holdings, LLC</t>
+          <t>Holtec Decommissioning International (HDI)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Orangeburg Expansion Phase 2</t>
+          <t>Proposed Datacenters at 450 Broadway, Buchanan, NY, 10511</t>
         </is>
       </c>
       <c r="E186" s="3" t="n">
-        <v>45509</v>
+        <v>45511</v>
       </c>
       <c r="F186" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G186" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -15311,7 +15299,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Westchester</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -15321,12 +15309,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Oak St 38kV substation</t>
+          <t>Buchanan 138kV Substation</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>O&amp;R</t>
+          <t>ConEd</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -15335,11 +15323,11 @@
         </is>
       </c>
       <c r="N186" s="3" t="n">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>12-2027</t>
+          <t>09-2026</t>
         </is>
       </c>
     </row>
@@ -15351,64 +15339,58 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Holtec Decommissioning International (HDI)</t>
+          <t>Seven Creek Energy, LLC</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Proposed Datacenters at 450 Broadway, Buchanan, NY, 10511</t>
+          <t>Erie East BESS</t>
         </is>
       </c>
       <c r="E187" s="3" t="n">
-        <v>45511</v>
-      </c>
-      <c r="F187" t="n">
-        <v>200</v>
-      </c>
-      <c r="G187" t="n">
-        <v>200</v>
+        <v>45545</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Westchester</t>
+          <t>Erie</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Buchanan 138kV Substation</t>
+          <t>Erie East 230kV (First Energy, Erie PA)</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>ConEd</t>
+          <t>PJM</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
+          <t>Scoping Meeting Pending</t>
         </is>
       </c>
       <c r="N187" s="3" t="n">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>09-2026</t>
+          <t>06-2027</t>
         </is>
       </c>
     </row>
@@ -15420,58 +15402,64 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Seven Creek Energy, LLC</t>
+          <t>ZeroC Data Centers, LLC</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Erie East BESS</t>
+          <t>NY State Artificial Intelligence Data Center</t>
         </is>
       </c>
       <c r="E188" s="3" t="n">
-        <v>45545</v>
+        <v>45553</v>
+      </c>
+      <c r="F188" t="n">
+        <v>300</v>
+      </c>
+      <c r="G188" t="n">
+        <v>300</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Erie</t>
+          <t>St. Lawrence</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Erie East 230kV (First Energy, Erie PA)</t>
+          <t>Dennison 115kV substation</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>PJM</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Scoping Meeting Pending</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N188" s="3" t="n">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>06-2027</t>
+          <t>12-2025</t>
         </is>
       </c>
     </row>
@@ -15483,64 +15471,58 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ZeroC Data Centers, LLC</t>
+          <t>Elk Run Storage LLC</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>New York State Artificial Intelligence Data Center</t>
+          <t>Elk Run Storage</t>
         </is>
       </c>
       <c r="E189" s="3" t="n">
-        <v>45553</v>
-      </c>
-      <c r="F189" t="n">
-        <v>300</v>
-      </c>
-      <c r="G189" t="n">
-        <v>300</v>
+        <v>45581</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>St. Lawrence</t>
+          <t>Tioga</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Dennison 115kV substation</t>
+          <t>Mainesburg 115 kV Substation</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>PJM</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
+          <t>Scoping Meeting Pending</t>
         </is>
       </c>
       <c r="N189" s="3" t="n">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>12-2025</t>
+          <t>11-2027</t>
         </is>
       </c>
     </row>
@@ -15552,58 +15534,64 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Elk Run Storage LLC</t>
+          <t>WF Industrial XII LLC</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Elk Run Storage</t>
+          <t>Brookhaven Logistics Center</t>
         </is>
       </c>
       <c r="E190" s="3" t="n">
-        <v>45581</v>
+        <v>45593</v>
+      </c>
+      <c r="F190" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="G190" t="n">
+        <v>176.6</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Tioga</t>
+          <t>Suffolk</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Mainesburg 115 kV Substation</t>
+          <t>138-872 Holbrook to Sills Rd or 138-873 West Bus to Sills Rd.</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>PJM</t>
+          <t>LIPA</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Scoping Meeting Pending</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N190" s="3" t="n">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>11-2027</t>
+          <t>01-2027</t>
         </is>
       </c>
     </row>
@@ -15615,61 +15603,58 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>WF Industrial XII LLC</t>
+          <t>Treebeard BESS Project Co LLC</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Brookhaven Logistics Center</t>
+          <t>Treebeard BESS</t>
         </is>
       </c>
       <c r="E191" s="3" t="n">
-        <v>45593</v>
-      </c>
-      <c r="F191" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="G191" t="n">
-        <v>176.6</v>
+        <v>45594</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Load</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Suffolk</t>
+          <t>New Milford</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>138-872 Holbrook to Sills Rd or 138-873 West Bus to Sills Rd.</t>
+          <t>115 kV line 1555 between Rocky River and Bulls Bridge substations</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>LIPA</t>
+          <t>ISO-NE</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>SRIS/SIS Pending</t>
-        </is>
+          <t>Scoping Meeting Pending</t>
+        </is>
+      </c>
+      <c r="N191" s="3" t="n">
+        <v>45657</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>01-2027</t>
+          <t>02-2027</t>
         </is>
       </c>
     </row>
@@ -15681,58 +15666,64 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>1723</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Treebeard BESS Project Co LLC</t>
+          <t>Olean Digital LLC</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Treebeard BESS</t>
+          <t>Olean Digital Data Center</t>
         </is>
       </c>
       <c r="E192" s="3" t="n">
-        <v>45594</v>
+        <v>45603</v>
+      </c>
+      <c r="F192" t="n">
+        <v>150</v>
+      </c>
+      <c r="G192" t="n">
+        <v>150</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Load</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>New Milford</t>
+          <t>Cattaraugus</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>115 kV line 1555 between Rocky River and Bulls Bridge substations</t>
+          <t>Homer Hill - Olean 115kV</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>ISO-NE</t>
+          <t>NM-NG</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Scoping Meeting Pending</t>
+          <t>SRIS/SIS Pending</t>
         </is>
       </c>
       <c r="N192" s="3" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>02-2027</t>
+          <t>06-2026</t>
         </is>
       </c>
     </row>
@@ -15744,27 +15735,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Olean Digital LLC</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Olean Digital Data Center</t>
+          <t>Alcoa East Energy Allocation Project</t>
         </is>
       </c>
       <c r="E193" s="3" t="n">
-        <v>45603</v>
+        <v>45635</v>
       </c>
       <c r="F193" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G193" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -15773,7 +15764,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Cattaraugus</t>
+          <t>St. Lawrence</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -15783,12 +15774,12 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Homer Hill Olean Substation</t>
+          <t>Haverstock - Willis 345kV lines HW1 &amp; HW2</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>NM-NG</t>
+          <t>NYPA</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15796,9 +15787,12 @@
           <t>Scoping Meeting Pending</t>
         </is>
       </c>
+      <c r="N193" s="3" t="n">
+        <v>45657</v>
+      </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>06-2026</t>
+          <t>07-2027</t>
         </is>
       </c>
     </row>
